--- a/DMSNewVSale_2025-11-19_21-17.xlsx
+++ b/DMSNewVSale_2025-11-19_21-17.xlsx
@@ -41,15 +41,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 500 MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -381,9 +387,6 @@
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:1</t>
   </si>
   <si>
     <t>48.00</t>
@@ -1582,7 +1585,7 @@
         <v>14</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1591,14 +1594,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1608,14 +1611,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1631,7 +1634,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1641,14 +1644,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1657,14 +1660,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1681,7 +1684,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1714,7 +1717,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1740,14 +1743,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1756,14 +1759,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1773,14 +1776,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1789,14 +1792,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1813,7 +1816,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1829,7 +1832,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1839,14 +1842,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1855,14 +1858,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1879,7 +1882,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1895,7 +1898,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1912,7 +1915,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1928,7 +1931,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1945,7 +1948,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1961,7 +1964,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1978,7 +1981,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1994,7 +1997,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2011,7 +2014,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2027,7 +2030,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2044,7 +2047,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2060,7 +2063,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2070,14 +2073,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2086,14 +2089,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2110,7 +2113,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2126,7 +2129,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2143,7 +2146,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2159,7 +2162,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2176,7 +2179,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2192,24 +2195,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2218,20 +2221,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2239,10 +2242,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2251,14 +2254,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2268,14 +2271,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2284,14 +2287,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2301,14 +2304,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2317,14 +2320,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2334,14 +2337,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2350,14 +2353,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2367,14 +2370,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,14 +2386,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2400,14 +2403,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2416,14 +2419,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2433,14 +2436,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2449,14 +2452,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2482,14 +2485,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2499,14 +2502,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2515,14 +2518,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2532,14 +2535,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2548,14 +2551,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2565,14 +2568,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2581,14 +2584,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2598,14 +2601,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2614,14 +2617,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2631,14 +2634,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2647,14 +2650,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2664,14 +2667,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2680,14 +2683,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2713,7 +2716,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2726,18 +2729,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2746,31 +2749,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2779,14 +2782,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2796,14 +2799,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2812,14 +2815,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2829,14 +2832,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2845,14 +2848,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2862,14 +2865,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2878,14 +2881,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2895,14 +2898,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2911,14 +2914,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2928,14 +2931,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2944,14 +2947,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2961,14 +2964,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2977,14 +2980,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2994,14 +2997,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3017,7 +3020,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3027,14 +3030,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3043,31 +3046,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,31 +3079,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,14 +3112,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3126,14 +3129,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3142,14 +3145,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3159,14 +3162,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3175,14 +3178,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3192,14 +3195,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3208,14 +3211,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3225,14 +3228,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3241,14 +3244,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3274,14 +3277,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3291,14 +3294,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3307,31 +3310,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3340,31 +3343,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3373,14 +3376,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3390,14 +3393,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,31 +3409,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3439,31 +3442,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,31 +3475,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3505,14 +3508,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3522,14 +3525,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3538,14 +3541,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3555,14 +3558,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3571,14 +3574,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3588,14 +3591,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3604,14 +3607,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3621,14 +3624,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3637,14 +3640,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3654,14 +3657,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3670,14 +3673,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3687,14 +3690,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3710,7 +3713,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3720,14 +3723,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3736,14 +3739,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3753,14 +3756,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3769,14 +3772,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3786,14 +3789,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3802,14 +3805,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3819,14 +3822,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3835,31 +3838,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3868,31 +3871,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3908,7 +3911,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3918,14 +3921,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3934,14 +3937,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3951,14 +3954,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3967,31 +3970,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4000,31 +4003,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4033,14 +4036,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4066,14 +4069,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4083,14 +4086,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,14 +4102,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4116,14 +4119,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4139,7 +4142,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4149,14 +4152,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4172,7 +4175,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4182,14 +4185,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4198,14 +4201,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4215,14 +4218,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4231,14 +4234,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4248,14 +4251,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4264,14 +4267,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4281,14 +4284,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4297,14 +4300,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4314,14 +4317,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4330,31 +4333,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4370,24 +4373,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4396,31 +4399,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4429,31 +4432,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4462,31 +4465,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>280</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4495,31 +4498,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4528,31 +4531,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>11</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4561,31 +4564,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4594,31 +4597,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4627,31 +4630,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4660,31 +4663,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4700,24 +4703,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4726,31 +4729,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4766,24 +4769,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4792,68 +4795,101 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" ht="26.25" customHeight="1">
-      <c r="N106" s="13">
-        <v>6469.2950000000001</v>
-      </c>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>301</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>139</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>82</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>56</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" ht="26.25" customHeight="1">
+      <c r="N107" s="13">
+        <v>6481.2950000000001</v>
+      </c>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>302</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>303</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>304</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5357,10 +5393,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="N106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
